--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C757"/>
+  <dimension ref="A1:C758"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13235,6 +13235,23 @@
         </is>
       </c>
     </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>4708.9742035468</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C758"/>
+  <dimension ref="A1:C761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13252,6 +13252,57 @@
         </is>
       </c>
     </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>4708.9742035468</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>4708.9742035468</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>4665.49787664044</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C761"/>
+  <dimension ref="A1:C762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13303,6 +13303,23 @@
         </is>
       </c>
     </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>4697.19381208635</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C762"/>
+  <dimension ref="A1:C763"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13320,6 +13320,23 @@
         </is>
       </c>
     </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>4680.54555831905</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C763"/>
+  <dimension ref="A1:C764"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13337,6 +13337,23 @@
         </is>
       </c>
     </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>4669.01684925281</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C764"/>
+  <dimension ref="A1:C765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13354,6 +13354,23 @@
         </is>
       </c>
     </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>4662.80724642852</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C765"/>
+  <dimension ref="A1:C768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13371,6 +13371,57 @@
         </is>
       </c>
     </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>4662.80724642852</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>4662.80724642852</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>20-12-2021</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>4679.38459903618</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C768"/>
+  <dimension ref="A1:C769"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13422,6 +13422,23 @@
         </is>
       </c>
     </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>21-12-2021</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>4589.5601034835</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C769"/>
+  <dimension ref="A1:C770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13439,6 +13439,23 @@
         </is>
       </c>
     </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>22-12-2021</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>4560.24008578663</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
+++ b/Data/F022.RCBCU.STO.PGR1.Z.USD.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C770"/>
+  <dimension ref="A1:C771"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13456,6 +13456,23 @@
         </is>
       </c>
     </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>23-12-2021</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>4573.45359529927</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
